--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\OneDrive\Documents\Maestria\I\Programacion\Trabajos\II - Pendulo\Repositorio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F3AB36-1260-43B9-AE90-2A698D2960D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E79C0CD-D65F-4B4A-A407-F1B649A080BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{E61A0DB3-B035-4DC2-A2D7-BD0A7A8E600E}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="A1:E353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I9"/>
+      <selection activeCell="Y352" sqref="Y352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,7 +660,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>14.119</v>
+        <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>-9.8569999999999993</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>14.153</v>
+        <v>3.4000000000000696E-2</v>
       </c>
       <c r="B3" s="9">
         <v>-12.36</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
-        <v>14.186</v>
+        <v>6.7000000000000171E-2</v>
       </c>
       <c r="B4" s="9">
         <v>-14.25</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
-        <v>14.218999999999999</v>
+        <v>9.9999999999999645E-2</v>
       </c>
       <c r="B5" s="9">
         <v>-15.56</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
-        <v>14.252000000000001</v>
+        <v>0.1330000000000009</v>
       </c>
       <c r="B6" s="9">
         <v>-16.2</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
-        <v>14.286</v>
+        <v>0.16699999999999982</v>
       </c>
       <c r="B7" s="9">
         <v>-16.440000000000001</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
-        <v>14.319000000000001</v>
+        <v>0.20000000000000107</v>
       </c>
       <c r="B8" s="9">
         <v>-16.329999999999998</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
-        <v>14.352</v>
+        <v>0.23300000000000054</v>
       </c>
       <c r="B9" s="9">
         <v>-15.78</v>
@@ -812,7 +812,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
-        <v>14.385999999999999</v>
+        <v>0.26699999999999946</v>
       </c>
       <c r="B10" s="9">
         <v>-14.48</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>14.419</v>
+        <v>0.30000000000000071</v>
       </c>
       <c r="B11" s="9">
         <v>-12.52</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
-        <v>14.452</v>
+        <v>0.33300000000000018</v>
       </c>
       <c r="B12" s="9">
         <v>-10.130000000000001</v>
@@ -869,7 +869,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
-        <v>14.486000000000001</v>
+        <v>0.36700000000000088</v>
       </c>
       <c r="B13" s="9">
         <v>-6.9539999999999997</v>
@@ -888,7 +888,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
-        <v>14.519</v>
+        <v>0.40000000000000036</v>
       </c>
       <c r="B14" s="9">
         <v>-1.8180000000000001</v>
@@ -907,7 +907,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
-        <v>14.552</v>
+        <v>0.43299999999999983</v>
       </c>
       <c r="B15" s="9">
         <v>-0.623</v>
@@ -926,7 +926,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
-        <v>14.585000000000001</v>
+        <v>0.46600000000000108</v>
       </c>
       <c r="B16" s="9">
         <v>2.5219999999999998</v>
@@ -945,7 +945,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
-        <v>14.619</v>
+        <v>0.5</v>
       </c>
       <c r="B17" s="9">
         <v>5.7939999999999996</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
-        <v>14.651999999999999</v>
+        <v>0.53299999999999947</v>
       </c>
       <c r="B18" s="9">
         <v>8.6219999999999999</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
-        <v>14.685</v>
+        <v>0.56600000000000072</v>
       </c>
       <c r="B19" s="9">
         <v>11.11</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
-        <v>14.718999999999999</v>
+        <v>0.59999999999999964</v>
       </c>
       <c r="B20" s="9">
         <v>13.08</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
-        <v>14.752000000000001</v>
+        <v>0.6330000000000009</v>
       </c>
       <c r="B21" s="9">
         <v>14.56</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>14.785</v>
+        <v>0.66600000000000037</v>
       </c>
       <c r="B22" s="9">
         <v>15.4</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
-        <v>14.819000000000001</v>
+        <v>0.70000000000000107</v>
       </c>
       <c r="B23" s="9">
         <v>15.82</v>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
-        <v>14.852</v>
+        <v>0.73300000000000054</v>
       </c>
       <c r="B24" s="9">
         <v>15.68</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>14.885</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="B25" s="9">
         <v>14.83</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
-        <v>14.917999999999999</v>
+        <v>0.79899999999999949</v>
       </c>
       <c r="B26" s="9">
         <v>13.67</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
-        <v>14.952</v>
+        <v>0.83300000000000018</v>
       </c>
       <c r="B27" s="9">
         <v>11.96</v>
@@ -1154,7 +1154,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
-        <v>14.984999999999999</v>
+        <v>0.86599999999999966</v>
       </c>
       <c r="B28" s="9">
         <v>9.702</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
-        <v>15.018000000000001</v>
+        <v>0.89900000000000091</v>
       </c>
       <c r="B29" s="9">
         <v>7.04</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
-        <v>15.052</v>
+        <v>0.93299999999999983</v>
       </c>
       <c r="B30" s="9">
         <v>4.1900000000000004</v>
@@ -1211,7 +1211,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
-        <v>15.085000000000001</v>
+        <v>0.96600000000000108</v>
       </c>
       <c r="B31" s="9">
         <v>0.97899999999999998</v>
@@ -1230,7 +1230,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
-        <v>15.118</v>
+        <v>0.99900000000000055</v>
       </c>
       <c r="B32" s="9">
         <v>-5.1929999999999996</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
-        <v>15.151999999999999</v>
+        <v>1.0329999999999995</v>
       </c>
       <c r="B33" s="9">
         <v>-9.0879999999999992</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
-        <v>15.185</v>
+        <v>1.0660000000000007</v>
       </c>
       <c r="B34" s="9">
         <v>-13.24</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
-        <v>15.218</v>
+        <v>1.0990000000000002</v>
       </c>
       <c r="B35" s="9">
         <v>-14.8</v>
@@ -1306,7 +1306,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
-        <v>15.250999999999999</v>
+        <v>1.1319999999999997</v>
       </c>
       <c r="B36" s="9">
         <v>-17.14</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
-        <v>15.285</v>
+        <v>1.1660000000000004</v>
       </c>
       <c r="B37" s="9">
         <v>-17.66</v>
@@ -1344,7 +1344,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
-        <v>15.318</v>
+        <v>1.1989999999999998</v>
       </c>
       <c r="B38" s="9">
         <v>-19.21</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
-        <v>15.351000000000001</v>
+        <v>1.2320000000000011</v>
       </c>
       <c r="B39" s="9">
         <v>-19.21</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
-        <v>15.385</v>
+        <v>1.266</v>
       </c>
       <c r="B40" s="9">
         <v>-12.98</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
-        <v>15.417999999999999</v>
+        <v>1.2989999999999995</v>
       </c>
       <c r="B41" s="9">
         <v>-8.0489999999999995</v>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
-        <v>15.451000000000001</v>
+        <v>1.3320000000000007</v>
       </c>
       <c r="B42" s="9">
         <v>-6.7510000000000003</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
-        <v>15.484999999999999</v>
+        <v>1.3659999999999997</v>
       </c>
       <c r="B43" s="9">
         <v>-3.1160000000000001</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
-        <v>15.518000000000001</v>
+        <v>1.3990000000000009</v>
       </c>
       <c r="B44" s="9">
         <v>-0.51900000000000002</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
-        <v>15.551</v>
+        <v>1.4320000000000004</v>
       </c>
       <c r="B45" s="9">
         <v>1.8180000000000001</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
-        <v>15.584</v>
+        <v>1.4649999999999999</v>
       </c>
       <c r="B46" s="9">
         <v>5.1929999999999996</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
-        <v>15.618</v>
+        <v>1.4990000000000006</v>
       </c>
       <c r="B47" s="9">
         <v>7.53</v>
@@ -1534,7 +1534,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
-        <v>15.651</v>
+        <v>1.532</v>
       </c>
       <c r="B48" s="9">
         <v>1.542</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
-        <v>15.683999999999999</v>
+        <v>1.5649999999999995</v>
       </c>
       <c r="B49" s="9">
         <v>4.67</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
-        <v>15.718</v>
+        <v>1.5990000000000002</v>
       </c>
       <c r="B50" s="9">
         <v>7.7080000000000002</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
-        <v>15.750999999999999</v>
+        <v>1.6319999999999997</v>
       </c>
       <c r="B51" s="9">
         <v>10.23</v>
@@ -1610,7 +1610,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
-        <v>15.784000000000001</v>
+        <v>1.6650000000000009</v>
       </c>
       <c r="B52" s="9">
         <v>12.34</v>
@@ -1629,7 +1629,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
-        <v>15.818</v>
+        <v>1.6989999999999998</v>
       </c>
       <c r="B53" s="9">
         <v>13.96</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
-        <v>15.851000000000001</v>
+        <v>1.7320000000000011</v>
       </c>
       <c r="B54" s="9">
         <v>15.1</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
-        <v>15.884</v>
+        <v>1.7650000000000006</v>
       </c>
       <c r="B55" s="9">
         <v>15.72</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
-        <v>15.917</v>
+        <v>1.798</v>
       </c>
       <c r="B56" s="9">
         <v>15.8</v>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
-        <v>15.951000000000001</v>
+        <v>1.8320000000000007</v>
       </c>
       <c r="B57" s="9">
         <v>15.35</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
-        <v>15.984</v>
+        <v>1.8650000000000002</v>
       </c>
       <c r="B58" s="9">
         <v>14.28</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
-        <v>16.016999999999999</v>
+        <v>1.8979999999999997</v>
       </c>
       <c r="B59" s="9">
         <v>12.76</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
-        <v>16.050999999999998</v>
+        <v>1.9319999999999986</v>
       </c>
       <c r="B60" s="9">
         <v>10.83</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
-        <v>16.084</v>
+        <v>1.9649999999999999</v>
       </c>
       <c r="B61" s="9">
         <v>8.3889999999999993</v>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
-        <v>16.117000000000001</v>
+        <v>1.9980000000000011</v>
       </c>
       <c r="B62" s="9">
         <v>5.5979999999999999</v>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
-        <v>16.151</v>
+        <v>2.032</v>
       </c>
       <c r="B63" s="9">
         <v>2.637</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
-        <v>16.184000000000001</v>
+        <v>2.0650000000000013</v>
       </c>
       <c r="B64" s="9">
         <v>-0.39300000000000002</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
-        <v>16.216999999999999</v>
+        <v>2.097999999999999</v>
       </c>
       <c r="B65" s="9">
         <v>-7.79</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
-        <v>16.25</v>
+        <v>2.1310000000000002</v>
       </c>
       <c r="B66" s="9">
         <v>-12.98</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
-        <v>16.283999999999999</v>
+        <v>2.1649999999999991</v>
       </c>
       <c r="B67" s="9">
         <v>-9.4290000000000003</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
-        <v>16.317</v>
+        <v>2.1980000000000004</v>
       </c>
       <c r="B68" s="9">
         <v>-11.76</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
-        <v>16.350000000000001</v>
+        <v>2.2310000000000016</v>
       </c>
       <c r="B69" s="9">
         <v>-13.62</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
-        <v>16.384</v>
+        <v>2.2650000000000006</v>
       </c>
       <c r="B70" s="9">
         <v>-15</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
-        <v>16.417000000000002</v>
+        <v>2.2980000000000018</v>
       </c>
       <c r="B71" s="9">
         <v>-15.64</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
-        <v>16.45</v>
+        <v>2.3309999999999995</v>
       </c>
       <c r="B72" s="9">
         <v>-15.75</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
-        <v>16.483000000000001</v>
+        <v>2.3640000000000008</v>
       </c>
       <c r="B73" s="9">
         <v>-15.56</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
-        <v>16.516999999999999</v>
+        <v>2.3979999999999997</v>
       </c>
       <c r="B74" s="9">
         <v>-14.82</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
-        <v>16.55</v>
+        <v>2.4310000000000009</v>
       </c>
       <c r="B75" s="9">
         <v>-13.41</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
-        <v>16.582999999999998</v>
+        <v>2.4639999999999986</v>
       </c>
       <c r="B76" s="9">
         <v>-11.51</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
-        <v>16.617000000000001</v>
+        <v>2.4980000000000011</v>
       </c>
       <c r="B77" s="9">
         <v>-8.9969999999999999</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
-        <v>16.649999999999999</v>
+        <v>2.5309999999999988</v>
       </c>
       <c r="B78" s="9">
         <v>-2.3370000000000002</v>
@@ -2123,7 +2123,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
-        <v>16.683</v>
+        <v>2.5640000000000001</v>
       </c>
       <c r="B79" s="9">
         <v>2.8559999999999999</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
-        <v>16.716999999999999</v>
+        <v>2.597999999999999</v>
       </c>
       <c r="B80" s="11">
         <v>5.543E-2</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
-        <v>16.75</v>
+        <v>2.6310000000000002</v>
       </c>
       <c r="B81" s="9">
         <v>3.133</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
-        <v>16.783000000000001</v>
+        <v>2.6640000000000015</v>
       </c>
       <c r="B82" s="9">
         <v>6.2910000000000004</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
-        <v>16.817</v>
+        <v>2.6980000000000004</v>
       </c>
       <c r="B83" s="9">
         <v>9.0120000000000005</v>
@@ -2218,7 +2218,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
-        <v>16.850000000000001</v>
+        <v>2.7310000000000016</v>
       </c>
       <c r="B84" s="9">
         <v>11.27</v>
@@ -2237,7 +2237,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
-        <v>16.882999999999999</v>
+        <v>2.7639999999999993</v>
       </c>
       <c r="B85" s="9">
         <v>13.08</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
-        <v>16.916</v>
+        <v>2.7970000000000006</v>
       </c>
       <c r="B86" s="9">
         <v>14.45</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
-        <v>16.95</v>
+        <v>2.8309999999999995</v>
       </c>
       <c r="B87" s="9">
         <v>15.31</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
-        <v>16.983000000000001</v>
+        <v>2.8640000000000008</v>
       </c>
       <c r="B88" s="9">
         <v>15.51</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
-        <v>17.015999999999998</v>
+        <v>2.8969999999999985</v>
       </c>
       <c r="B89" s="9">
         <v>15.3</v>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
-        <v>17.05</v>
+        <v>2.9310000000000009</v>
       </c>
       <c r="B90" s="9">
         <v>14.56</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
-        <v>17.082999999999998</v>
+        <v>2.9639999999999986</v>
       </c>
       <c r="B91" s="9">
         <v>13.24</v>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
-        <v>17.116</v>
+        <v>2.9969999999999999</v>
       </c>
       <c r="B92" s="9">
         <v>11.5</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
-        <v>17.149999999999999</v>
+        <v>3.0309999999999988</v>
       </c>
       <c r="B93" s="9">
         <v>9.2940000000000005</v>
@@ -2408,7 +2408,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
-        <v>17.183</v>
+        <v>3.0640000000000001</v>
       </c>
       <c r="B94" s="9">
         <v>6.63</v>
@@ -2427,7 +2427,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
-        <v>17.216000000000001</v>
+        <v>3.0970000000000013</v>
       </c>
       <c r="B95" s="9">
         <v>3.774</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
-        <v>17.248999999999999</v>
+        <v>3.129999999999999</v>
       </c>
       <c r="B96" s="9">
         <v>0.71299999999999997</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
-        <v>17.283000000000001</v>
+        <v>3.1640000000000015</v>
       </c>
       <c r="B97" s="9">
         <v>-4.6740000000000004</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
-        <v>17.315999999999999</v>
+        <v>3.1969999999999992</v>
       </c>
       <c r="B98" s="9">
         <v>-10.130000000000001</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
-        <v>17.349</v>
+        <v>3.2300000000000004</v>
       </c>
       <c r="B99" s="9">
         <v>-8.109</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
-        <v>17.382999999999999</v>
+        <v>3.2639999999999993</v>
       </c>
       <c r="B100" s="9">
         <v>-10.71</v>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
-        <v>17.416</v>
+        <v>3.2970000000000006</v>
       </c>
       <c r="B101" s="9">
         <v>-12.74</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
-        <v>17.449000000000002</v>
+        <v>3.3300000000000018</v>
       </c>
       <c r="B102" s="9">
         <v>-14.18</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
-        <v>17.483000000000001</v>
+        <v>3.3640000000000008</v>
       </c>
       <c r="B103" s="9">
         <v>-19.73</v>
@@ -2598,7 +2598,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
-        <v>17.515999999999998</v>
+        <v>3.3969999999999985</v>
       </c>
       <c r="B104" s="9">
         <v>-21.55</v>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
-        <v>17.548999999999999</v>
+        <v>3.4299999999999997</v>
       </c>
       <c r="B105" s="9">
         <v>-11.17</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
-        <v>17.582000000000001</v>
+        <v>3.463000000000001</v>
       </c>
       <c r="B106" s="9">
         <v>-7.27</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
-        <v>17.616</v>
+        <v>3.4969999999999999</v>
       </c>
       <c r="B107" s="9">
         <v>-13.73</v>
@@ -2674,7 +2674,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
-        <v>17.649000000000001</v>
+        <v>3.5300000000000011</v>
       </c>
       <c r="B108" s="9">
         <v>-12.11</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
-        <v>17.681999999999999</v>
+        <v>3.5629999999999988</v>
       </c>
       <c r="B109" s="9">
         <v>-9.9350000000000005</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
-        <v>17.716000000000001</v>
+        <v>3.5970000000000013</v>
       </c>
       <c r="B110" s="9">
         <v>3.1160000000000001</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
-        <v>17.748999999999999</v>
+        <v>3.629999999999999</v>
       </c>
       <c r="B111" s="9">
         <v>3.1160000000000001</v>
@@ -2750,7 +2750,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
-        <v>17.782</v>
+        <v>3.6630000000000003</v>
       </c>
       <c r="B112" s="9">
         <v>5.4530000000000003</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="8">
-        <v>17.815999999999999</v>
+        <v>3.6969999999999992</v>
       </c>
       <c r="B113" s="9">
         <v>2.0099999999999998</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="8">
-        <v>17.849</v>
+        <v>3.7300000000000004</v>
       </c>
       <c r="B114" s="9">
         <v>5.1150000000000002</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="8">
-        <v>17.882000000000001</v>
+        <v>3.7630000000000017</v>
       </c>
       <c r="B115" s="9">
         <v>7.8559999999999999</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="8">
-        <v>17.914999999999999</v>
+        <v>3.7959999999999994</v>
       </c>
       <c r="B116" s="9">
         <v>10.29</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="8">
-        <v>17.949000000000002</v>
+        <v>3.8300000000000018</v>
       </c>
       <c r="B117" s="9">
         <v>12.31</v>
@@ -2864,7 +2864,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="8">
-        <v>17.981999999999999</v>
+        <v>3.8629999999999995</v>
       </c>
       <c r="B118" s="9">
         <v>13.74</v>
@@ -2883,7 +2883,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="8">
-        <v>18.015000000000001</v>
+        <v>3.8960000000000008</v>
       </c>
       <c r="B119" s="9">
         <v>14.76</v>
@@ -2902,7 +2902,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="8">
-        <v>18.048999999999999</v>
+        <v>3.9299999999999997</v>
       </c>
       <c r="B120" s="9">
         <v>15.3</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="8">
-        <v>18.082000000000001</v>
+        <v>3.963000000000001</v>
       </c>
       <c r="B121" s="9">
         <v>15.28</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="8">
-        <v>18.114999999999998</v>
+        <v>3.9959999999999987</v>
       </c>
       <c r="B122" s="9">
         <v>14.71</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="8">
-        <v>18.148</v>
+        <v>4.0289999999999999</v>
       </c>
       <c r="B123" s="9">
         <v>13.64</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="8">
-        <v>18.181999999999999</v>
+        <v>4.0629999999999988</v>
       </c>
       <c r="B124" s="9">
         <v>12.11</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="8">
-        <v>18.215</v>
+        <v>4.0960000000000001</v>
       </c>
       <c r="B125" s="9">
         <v>10.11</v>
@@ -3016,7 +3016,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="8">
-        <v>18.248000000000001</v>
+        <v>4.1290000000000013</v>
       </c>
       <c r="B126" s="9">
         <v>7.7850000000000001</v>
@@ -3035,7 +3035,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="8">
-        <v>18.282</v>
+        <v>4.1630000000000003</v>
       </c>
       <c r="B127" s="9">
         <v>5.08</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="8">
-        <v>18.315000000000001</v>
+        <v>4.1960000000000015</v>
       </c>
       <c r="B128" s="9">
         <v>2.1419999999999999</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="8">
-        <v>18.347999999999999</v>
+        <v>4.2289999999999992</v>
       </c>
       <c r="B129" s="9">
         <v>-0.64300000000000002</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="8">
-        <v>18.382000000000001</v>
+        <v>4.2630000000000017</v>
       </c>
       <c r="B130" s="9">
         <v>-7.79</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
-        <v>18.414999999999999</v>
+        <v>4.2959999999999994</v>
       </c>
       <c r="B131" s="9">
         <v>-10.130000000000001</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
-        <v>18.448</v>
+        <v>4.3290000000000006</v>
       </c>
       <c r="B132" s="9">
         <v>-9.407</v>
@@ -3149,7 +3149,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
-        <v>18.481999999999999</v>
+        <v>4.3629999999999995</v>
       </c>
       <c r="B133" s="9">
         <v>-11.64</v>
@@ -3168,7 +3168,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
-        <v>18.515000000000001</v>
+        <v>4.3960000000000008</v>
       </c>
       <c r="B134" s="9">
         <v>-13.36</v>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="8">
-        <v>18.547999999999998</v>
+        <v>4.4289999999999985</v>
       </c>
       <c r="B135" s="9">
         <v>-14.58</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="8">
-        <v>18.581</v>
+        <v>4.4619999999999997</v>
       </c>
       <c r="B136" s="9">
         <v>-15.22</v>
@@ -3225,7 +3225,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="8">
-        <v>18.614999999999998</v>
+        <v>4.4959999999999987</v>
       </c>
       <c r="B137" s="9">
         <v>-15.35</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="8">
-        <v>18.648</v>
+        <v>4.5289999999999999</v>
       </c>
       <c r="B138" s="9">
         <v>-15.08</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="8">
-        <v>18.681000000000001</v>
+        <v>4.5620000000000012</v>
       </c>
       <c r="B139" s="9">
         <v>-14.14</v>
@@ -3282,7 +3282,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="8">
-        <v>18.715</v>
+        <v>4.5960000000000001</v>
       </c>
       <c r="B140" s="9">
         <v>-12.67</v>
@@ -3301,7 +3301,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="8">
-        <v>18.748000000000001</v>
+        <v>4.6290000000000013</v>
       </c>
       <c r="B141" s="9">
         <v>-10.71</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="8">
-        <v>18.780999999999999</v>
+        <v>4.661999999999999</v>
       </c>
       <c r="B142" s="9">
         <v>-8.1760000000000002</v>
@@ -3339,7 +3339,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="8">
-        <v>18.814</v>
+        <v>4.6950000000000003</v>
       </c>
       <c r="B143" s="9">
         <v>-3.1160000000000001</v>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="8">
-        <v>18.847999999999999</v>
+        <v>4.7289999999999992</v>
       </c>
       <c r="B144" s="9">
         <v>-0.51900000000000002</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
-        <v>18.881</v>
+        <v>4.7620000000000005</v>
       </c>
       <c r="B145" s="9">
         <v>0.751</v>
@@ -3396,7 +3396,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
-        <v>18.914000000000001</v>
+        <v>4.7950000000000017</v>
       </c>
       <c r="B146" s="9">
         <v>3.7210000000000001</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
-        <v>18.948</v>
+        <v>4.8290000000000006</v>
       </c>
       <c r="B147" s="9">
         <v>6.5860000000000003</v>
@@ -3434,7 +3434,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
-        <v>18.981000000000002</v>
+        <v>4.8620000000000019</v>
       </c>
       <c r="B148" s="9">
         <v>9.1319999999999997</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="8">
-        <v>19.013999999999999</v>
+        <v>4.8949999999999996</v>
       </c>
       <c r="B149" s="9">
         <v>11.3</v>
@@ -3472,7 +3472,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="8">
-        <v>19.047999999999998</v>
+        <v>4.9289999999999985</v>
       </c>
       <c r="B150" s="9">
         <v>12.91</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="8">
-        <v>19.081</v>
+        <v>4.9619999999999997</v>
       </c>
       <c r="B151" s="9">
         <v>14.04</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="8">
-        <v>19.114000000000001</v>
+        <v>4.995000000000001</v>
       </c>
       <c r="B152" s="9">
         <v>14.74</v>
@@ -3529,7 +3529,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="8">
-        <v>19.148</v>
+        <v>5.0289999999999999</v>
       </c>
       <c r="B153" s="9">
         <v>14.87</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="8">
-        <v>19.181000000000001</v>
+        <v>5.0620000000000012</v>
       </c>
       <c r="B154" s="9">
         <v>14.54</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="8">
-        <v>19.213999999999999</v>
+        <v>5.0949999999999989</v>
       </c>
       <c r="B155" s="9">
         <v>13.71</v>
@@ -3586,7 +3586,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="8">
-        <v>19.247</v>
+        <v>5.1280000000000001</v>
       </c>
       <c r="B156" s="9">
         <v>12.43</v>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="8">
-        <v>19.280999999999999</v>
+        <v>5.161999999999999</v>
       </c>
       <c r="B157" s="9">
         <v>10.68</v>
@@ -3624,7 +3624,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="8">
-        <v>19.314</v>
+        <v>5.1950000000000003</v>
       </c>
       <c r="B158" s="9">
         <v>8.4489999999999998</v>
@@ -3643,7 +3643,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="8">
-        <v>19.347000000000001</v>
+        <v>5.2280000000000015</v>
       </c>
       <c r="B159" s="9">
         <v>5.9020000000000001</v>
@@ -3662,7 +3662,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="8">
-        <v>19.381</v>
+        <v>5.2620000000000005</v>
       </c>
       <c r="B160" s="9">
         <v>3.008</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="8">
-        <v>19.414000000000001</v>
+        <v>5.2950000000000017</v>
       </c>
       <c r="B161" s="11">
         <v>8.0379999999999993E-2</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="8">
-        <v>19.446999999999999</v>
+        <v>5.3279999999999994</v>
       </c>
       <c r="B162" s="9">
         <v>-5.1929999999999996</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="8">
-        <v>19.48</v>
+        <v>5.3610000000000007</v>
       </c>
       <c r="B163" s="9">
         <v>-8.0489999999999995</v>
@@ -3738,7 +3738,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="8">
-        <v>19.513999999999999</v>
+        <v>5.3949999999999996</v>
       </c>
       <c r="B164" s="9">
         <v>-11.17</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="8">
-        <v>19.547000000000001</v>
+        <v>5.4280000000000008</v>
       </c>
       <c r="B165" s="9">
         <v>-13.76</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="8">
-        <v>19.579999999999998</v>
+        <v>5.4609999999999985</v>
       </c>
       <c r="B166" s="9">
         <v>-15.84</v>
@@ -3795,7 +3795,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="8">
-        <v>19.614000000000001</v>
+        <v>5.495000000000001</v>
       </c>
       <c r="B167" s="9">
         <v>-18.440000000000001</v>
@@ -3814,7 +3814,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="8">
-        <v>19.646999999999998</v>
+        <v>5.5279999999999987</v>
       </c>
       <c r="B168" s="9">
         <v>-13.76</v>
@@ -3833,7 +3833,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="8">
-        <v>19.68</v>
+        <v>5.5609999999999999</v>
       </c>
       <c r="B169" s="9">
         <v>-19.47</v>
@@ -3852,7 +3852,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="8">
-        <v>19.713999999999999</v>
+        <v>5.5949999999999989</v>
       </c>
       <c r="B170" s="9">
         <v>-13.24</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="8">
-        <v>19.747</v>
+        <v>5.6280000000000001</v>
       </c>
       <c r="B171" s="9">
         <v>-9.0879999999999992</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="8">
-        <v>19.78</v>
+        <v>5.6610000000000014</v>
       </c>
       <c r="B172" s="9">
         <v>-4.6740000000000004</v>
@@ -3909,7 +3909,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="8">
-        <v>19.814</v>
+        <v>5.6950000000000003</v>
       </c>
       <c r="B173" s="9">
         <v>-4.4139999999999997</v>
@@ -3928,7 +3928,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="8">
-        <v>19.847000000000001</v>
+        <v>5.7280000000000015</v>
       </c>
       <c r="B174" s="9">
         <v>-0.26</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="8">
-        <v>19.88</v>
+        <v>5.7609999999999992</v>
       </c>
       <c r="B175" s="9">
         <v>-1.5580000000000001</v>
@@ -3966,7 +3966,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="8">
-        <v>19.913</v>
+        <v>5.7940000000000005</v>
       </c>
       <c r="B176" s="9">
         <v>1.5580000000000001</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="8">
-        <v>19.946999999999999</v>
+        <v>5.8279999999999994</v>
       </c>
       <c r="B177" s="9">
         <v>3.895</v>
@@ -4004,7 +4004,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="8">
-        <v>19.98</v>
+        <v>5.8610000000000007</v>
       </c>
       <c r="B178" s="9">
         <v>2.6040000000000001</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="8">
-        <v>20.013000000000002</v>
+        <v>5.8940000000000019</v>
       </c>
       <c r="B179" s="9">
         <v>8.8279999999999994</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="8">
-        <v>20.047000000000001</v>
+        <v>5.9280000000000008</v>
       </c>
       <c r="B180" s="9">
         <v>8.0459999999999994</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="8">
-        <v>20.079999999999998</v>
+        <v>5.9609999999999985</v>
       </c>
       <c r="B181" s="9">
         <v>10.34</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="8">
-        <v>20.113</v>
+        <v>5.9939999999999998</v>
       </c>
       <c r="B182" s="9">
         <v>12.21</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="8">
-        <v>20.146000000000001</v>
+        <v>6.027000000000001</v>
       </c>
       <c r="B183" s="9">
         <v>13.52</v>
@@ -4118,7 +4118,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="8">
-        <v>20.18</v>
+        <v>6.0609999999999999</v>
       </c>
       <c r="B184" s="9">
         <v>14.41</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="8">
-        <v>20.213000000000001</v>
+        <v>6.0940000000000012</v>
       </c>
       <c r="B185" s="9">
         <v>14.86</v>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="8">
-        <v>20.245999999999999</v>
+        <v>6.1269999999999989</v>
       </c>
       <c r="B186" s="9">
         <v>14.71</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="8">
-        <v>20.28</v>
+        <v>6.1610000000000014</v>
       </c>
       <c r="B187" s="9">
         <v>14.07</v>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="8">
-        <v>20.312999999999999</v>
+        <v>6.1939999999999991</v>
       </c>
       <c r="B188" s="9">
         <v>12.98</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="8">
-        <v>20.346</v>
+        <v>6.2270000000000003</v>
       </c>
       <c r="B189" s="9">
         <v>11.35</v>
@@ -4232,7 +4232,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="8">
-        <v>20.38</v>
+        <v>6.2609999999999992</v>
       </c>
       <c r="B190" s="9">
         <v>9.3780000000000001</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="8">
-        <v>20.413</v>
+        <v>6.2940000000000005</v>
       </c>
       <c r="B191" s="9">
         <v>6.9119999999999999</v>
@@ -4270,7 +4270,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="8">
-        <v>20.446000000000002</v>
+        <v>6.3270000000000017</v>
       </c>
       <c r="B192" s="9">
         <v>4.3209999999999997</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="8">
-        <v>20.48</v>
+        <v>6.3610000000000007</v>
       </c>
       <c r="B193" s="9">
         <v>1.4750000000000001</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="8">
-        <v>20.513000000000002</v>
+        <v>6.3940000000000019</v>
       </c>
       <c r="B194" s="9">
         <v>-1.0509999999999999</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="8">
-        <v>20.545999999999999</v>
+        <v>6.4269999999999996</v>
       </c>
       <c r="B195" s="9">
         <v>-8.0489999999999995</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="8">
-        <v>20.579000000000001</v>
+        <v>6.4600000000000009</v>
       </c>
       <c r="B196" s="9">
         <v>-7.2619999999999996</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="8">
-        <v>20.613</v>
+        <v>6.4939999999999998</v>
       </c>
       <c r="B197" s="9">
         <v>-9.7309999999999999</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="8">
-        <v>20.646000000000001</v>
+        <v>6.527000000000001</v>
       </c>
       <c r="B198" s="9">
         <v>-11.8</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="8">
-        <v>20.678999999999998</v>
+        <v>6.5599999999999987</v>
       </c>
       <c r="B199" s="9">
         <v>-13.4</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="8">
-        <v>20.713000000000001</v>
+        <v>6.5940000000000012</v>
       </c>
       <c r="B200" s="9">
         <v>-14.52</v>
@@ -4441,7 +4441,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="8">
-        <v>20.745999999999999</v>
+        <v>6.6269999999999989</v>
       </c>
       <c r="B201" s="9">
         <v>-15.03</v>
@@ -4460,7 +4460,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="8">
-        <v>20.779</v>
+        <v>6.66</v>
       </c>
       <c r="B202" s="9">
         <v>-15.02</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="8">
-        <v>20.812999999999999</v>
+        <v>6.6939999999999991</v>
       </c>
       <c r="B203" s="9">
         <v>-14.64</v>
@@ -4498,7 +4498,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="8">
-        <v>20.846</v>
+        <v>6.7270000000000003</v>
       </c>
       <c r="B204" s="9">
         <v>-13.69</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="8">
-        <v>20.879000000000001</v>
+        <v>6.7600000000000016</v>
       </c>
       <c r="B205" s="9">
         <v>-12.13</v>
@@ -4536,7 +4536,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="8">
-        <v>20.911999999999999</v>
+        <v>6.7929999999999993</v>
       </c>
       <c r="B206" s="9">
         <v>-10.09</v>
@@ -4555,7 +4555,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="8">
-        <v>20.946000000000002</v>
+        <v>6.8270000000000017</v>
       </c>
       <c r="B207" s="9">
         <v>-1.8180000000000001</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="8">
-        <v>20.978999999999999</v>
+        <v>6.8599999999999994</v>
       </c>
       <c r="B208" s="9">
         <v>-0.51900000000000002</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="8">
-        <v>21.012</v>
+        <v>6.8930000000000007</v>
       </c>
       <c r="B209" s="9">
         <v>3.6349999999999998</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="8">
-        <v>21.045999999999999</v>
+        <v>6.9269999999999996</v>
       </c>
       <c r="B210" s="9">
         <v>1.08</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="8">
-        <v>21.079000000000001</v>
+        <v>6.9600000000000009</v>
       </c>
       <c r="B211" s="9">
         <v>4.0179999999999998</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="8">
-        <v>21.111999999999998</v>
+        <v>6.9929999999999986</v>
       </c>
       <c r="B212" s="9">
         <v>6.7969999999999997</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="8">
-        <v>21.145</v>
+        <v>7.0259999999999998</v>
       </c>
       <c r="B213" s="9">
         <v>9.1639999999999997</v>
@@ -4688,7 +4688,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="8">
-        <v>21.178999999999998</v>
+        <v>7.0599999999999987</v>
       </c>
       <c r="B214" s="9">
         <v>11.15</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="8">
-        <v>21.212</v>
+        <v>7.093</v>
       </c>
       <c r="B215" s="9">
         <v>12.68</v>
@@ -4726,7 +4726,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="8">
-        <v>21.245000000000001</v>
+        <v>7.1260000000000012</v>
       </c>
       <c r="B216" s="9">
         <v>13.69</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="8">
-        <v>21.279</v>
+        <v>7.16</v>
       </c>
       <c r="B217" s="9">
         <v>14.25</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="8">
-        <v>21.312000000000001</v>
+        <v>7.1930000000000014</v>
       </c>
       <c r="B218" s="9">
         <v>14.28</v>
@@ -4783,7 +4783,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="8">
-        <v>21.344999999999999</v>
+        <v>7.2259999999999991</v>
       </c>
       <c r="B219" s="9">
         <v>13.94</v>
@@ -4802,7 +4802,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="8">
-        <v>21.379000000000001</v>
+        <v>7.2600000000000016</v>
       </c>
       <c r="B220" s="9">
         <v>13.09</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="8">
-        <v>21.411999999999999</v>
+        <v>7.2929999999999993</v>
       </c>
       <c r="B221" s="9">
         <v>11.69</v>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="8">
-        <v>21.445</v>
+        <v>7.3260000000000005</v>
       </c>
       <c r="B222" s="9">
         <v>9.9269999999999996</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="8">
-        <v>21.478999999999999</v>
+        <v>7.3599999999999994</v>
       </c>
       <c r="B223" s="9">
         <v>7.65</v>
@@ -4878,7 +4878,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="8">
-        <v>21.512</v>
+        <v>7.3930000000000007</v>
       </c>
       <c r="B224" s="9">
         <v>5.1859999999999999</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225" s="8">
-        <v>21.545000000000002</v>
+        <v>7.4260000000000019</v>
       </c>
       <c r="B225" s="9">
         <v>2.5089999999999999</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="8">
-        <v>21.577999999999999</v>
+        <v>7.4589999999999996</v>
       </c>
       <c r="B226" s="9">
         <v>-0.14499999999999999</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="8">
-        <v>21.611999999999998</v>
+        <v>7.4929999999999986</v>
       </c>
       <c r="B227" s="9">
         <v>-5.9720000000000004</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="8">
-        <v>21.645</v>
+        <v>7.5259999999999998</v>
       </c>
       <c r="B228" s="9">
         <v>-9.0879999999999992</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="8">
-        <v>21.678000000000001</v>
+        <v>7.5590000000000011</v>
       </c>
       <c r="B229" s="9">
         <v>-8.548</v>
@@ -4992,7 +4992,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="8">
-        <v>21.712</v>
+        <v>7.593</v>
       </c>
       <c r="B230" s="9">
         <v>-10.73</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231" s="8">
-        <v>21.745000000000001</v>
+        <v>7.6260000000000012</v>
       </c>
       <c r="B231" s="9">
         <v>-12.48</v>
@@ -5030,7 +5030,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="8">
-        <v>21.777999999999999</v>
+        <v>7.6589999999999989</v>
       </c>
       <c r="B232" s="9">
         <v>-13.77</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="8">
-        <v>21.811</v>
+        <v>7.6920000000000002</v>
       </c>
       <c r="B233" s="9">
         <v>-14.54</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="8">
-        <v>21.844999999999999</v>
+        <v>7.7259999999999991</v>
       </c>
       <c r="B234" s="9">
         <v>-14.73</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="8">
-        <v>21.878</v>
+        <v>7.7590000000000003</v>
       </c>
       <c r="B235" s="9">
         <v>-14.48</v>
@@ -5106,7 +5106,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="8">
-        <v>21.911000000000001</v>
+        <v>7.7920000000000016</v>
       </c>
       <c r="B236" s="9">
         <v>-13.7</v>
@@ -5125,7 +5125,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="8">
-        <v>21.945</v>
+        <v>7.8260000000000005</v>
       </c>
       <c r="B237" s="9">
         <v>-12.39</v>
@@ -5144,7 +5144,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="8">
-        <v>21.978000000000002</v>
+        <v>7.8590000000000018</v>
       </c>
       <c r="B238" s="9">
         <v>-10.49</v>
@@ -5163,7 +5163,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="8">
-        <v>22.010999999999999</v>
+        <v>7.8919999999999995</v>
       </c>
       <c r="B239" s="9">
         <v>-8.202</v>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="8">
-        <v>22.045000000000002</v>
+        <v>7.9260000000000019</v>
       </c>
       <c r="B240" s="9">
         <v>-3.375</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="8">
-        <v>22.077999999999999</v>
+        <v>7.9589999999999996</v>
       </c>
       <c r="B241" s="9">
         <v>-0.26</v>
@@ -5220,7 +5220,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="8">
-        <v>22.111000000000001</v>
+        <v>7.9920000000000009</v>
       </c>
       <c r="B242" s="9">
         <v>0.121</v>
@@ -5239,7 +5239,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="8">
-        <v>22.145</v>
+        <v>8.0259999999999998</v>
       </c>
       <c r="B243" s="9">
         <v>3.0419999999999998</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="8">
-        <v>22.178000000000001</v>
+        <v>8.0590000000000011</v>
       </c>
       <c r="B244" s="9">
         <v>5.7610000000000001</v>
@@ -5277,7 +5277,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="8">
-        <v>22.210999999999999</v>
+        <v>8.0919999999999987</v>
       </c>
       <c r="B245" s="9">
         <v>8.2829999999999995</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="8">
-        <v>22.244</v>
+        <v>8.125</v>
       </c>
       <c r="B246" s="9">
         <v>10.32</v>
@@ -5315,7 +5315,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="8">
-        <v>22.277999999999999</v>
+        <v>8.1589999999999989</v>
       </c>
       <c r="B247" s="9">
         <v>11.98</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="8">
-        <v>22.311</v>
+        <v>8.1920000000000002</v>
       </c>
       <c r="B248" s="9">
         <v>13.2</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="8">
-        <v>22.344000000000001</v>
+        <v>8.2250000000000014</v>
       </c>
       <c r="B249" s="9">
         <v>13.91</v>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="8">
-        <v>22.378</v>
+        <v>8.2590000000000003</v>
       </c>
       <c r="B250" s="9">
         <v>14.23</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="8">
-        <v>22.411000000000001</v>
+        <v>8.2920000000000016</v>
       </c>
       <c r="B251" s="9">
         <v>14.03</v>
@@ -5410,7 +5410,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="8">
-        <v>22.443999999999999</v>
+        <v>8.3249999999999993</v>
       </c>
       <c r="B252" s="9">
         <v>13.25</v>
@@ -5429,7 +5429,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="8">
-        <v>22.477</v>
+        <v>8.3580000000000005</v>
       </c>
       <c r="B253" s="9">
         <v>12.14</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="8">
-        <v>22.510999999999999</v>
+        <v>8.3919999999999995</v>
       </c>
       <c r="B254" s="9">
         <v>10.54</v>
@@ -5467,7 +5467,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="8">
-        <v>22.544</v>
+        <v>8.4250000000000007</v>
       </c>
       <c r="B255" s="9">
         <v>8.6</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="8">
-        <v>22.577000000000002</v>
+        <v>8.458000000000002</v>
       </c>
       <c r="B256" s="9">
         <v>6.2469999999999999</v>
@@ -5505,7 +5505,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="8">
-        <v>22.611000000000001</v>
+        <v>8.4920000000000009</v>
       </c>
       <c r="B257" s="9">
         <v>3.5939999999999999</v>
@@ -5524,7 +5524,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="8">
-        <v>22.643999999999998</v>
+        <v>8.5249999999999986</v>
       </c>
       <c r="B258" s="9">
         <v>0.92600000000000005</v>
@@ -5543,7 +5543,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="8">
-        <v>22.677</v>
+        <v>8.5579999999999998</v>
       </c>
       <c r="B259" s="9">
         <v>-4.1539999999999999</v>
@@ -5562,7 +5562,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="8">
-        <v>22.710999999999999</v>
+        <v>8.5919999999999987</v>
       </c>
       <c r="B260" s="9">
         <v>-7.79</v>
@@ -5581,7 +5581,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="8">
-        <v>22.744</v>
+        <v>8.625</v>
       </c>
       <c r="B261" s="9">
         <v>-7.3470000000000004</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="8">
-        <v>22.777000000000001</v>
+        <v>8.6580000000000013</v>
       </c>
       <c r="B262" s="9">
         <v>-9.7129999999999992</v>
@@ -5619,7 +5619,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="8">
-        <v>22.811</v>
+        <v>8.6920000000000002</v>
       </c>
       <c r="B263" s="9">
         <v>-11.64</v>
@@ -5638,7 +5638,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="8">
-        <v>22.844000000000001</v>
+        <v>8.7250000000000014</v>
       </c>
       <c r="B264" s="9">
         <v>-13.1</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="8">
-        <v>22.876999999999999</v>
+        <v>8.7579999999999991</v>
       </c>
       <c r="B265" s="9">
         <v>-14.12</v>
@@ -5676,7 +5676,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="8">
-        <v>22.91</v>
+        <v>8.7910000000000004</v>
       </c>
       <c r="B266" s="9">
         <v>-14.57</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="8">
-        <v>22.943999999999999</v>
+        <v>8.8249999999999993</v>
       </c>
       <c r="B267" s="9">
         <v>-14.52</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="8">
-        <v>22.977</v>
+        <v>8.8580000000000005</v>
       </c>
       <c r="B268" s="9">
         <v>-13.97</v>
@@ -5733,7 +5733,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="8">
-        <v>23.01</v>
+        <v>8.8910000000000018</v>
       </c>
       <c r="B269" s="9">
         <v>-12.89</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="8">
-        <v>23.044</v>
+        <v>8.9250000000000007</v>
       </c>
       <c r="B270" s="9">
         <v>-11.26</v>
@@ -5771,7 +5771,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="8">
-        <v>23.077000000000002</v>
+        <v>8.958000000000002</v>
       </c>
       <c r="B271" s="9">
         <v>-9.1219999999999999</v>
@@ -5790,7 +5790,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="8">
-        <v>23.11</v>
+        <v>8.9909999999999997</v>
       </c>
       <c r="B272" s="9">
         <v>-1.5580000000000001</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="8">
-        <v>23.143000000000001</v>
+        <v>9.0240000000000009</v>
       </c>
       <c r="B273" s="9">
         <v>2.597</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="8">
-        <v>23.177</v>
+        <v>9.0579999999999998</v>
       </c>
       <c r="B274" s="9">
         <v>-0.872</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="8">
-        <v>23.21</v>
+        <v>9.0910000000000011</v>
       </c>
       <c r="B275" s="9">
         <v>1.754</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="8">
-        <v>23.242999999999999</v>
+        <v>9.1239999999999988</v>
       </c>
       <c r="B276" s="9">
         <v>4.4669999999999996</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="8">
-        <v>23.277000000000001</v>
+        <v>9.1580000000000013</v>
       </c>
       <c r="B277" s="9">
         <v>7.0339999999999998</v>
@@ -5904,7 +5904,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="8">
-        <v>23.31</v>
+        <v>9.1909999999999989</v>
       </c>
       <c r="B278" s="9">
         <v>9.2490000000000006</v>
@@ -5923,7 +5923,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="8">
-        <v>23.343</v>
+        <v>9.2240000000000002</v>
       </c>
       <c r="B279" s="9">
         <v>11.01</v>
@@ -5942,7 +5942,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="8">
-        <v>23.376999999999999</v>
+        <v>9.2579999999999991</v>
       </c>
       <c r="B280" s="9">
         <v>12.37</v>
@@ -5961,7 +5961,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="8">
-        <v>23.41</v>
+        <v>9.2910000000000004</v>
       </c>
       <c r="B281" s="9">
         <v>13.25</v>
@@ -5980,7 +5980,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="8">
-        <v>23.443000000000001</v>
+        <v>9.3240000000000016</v>
       </c>
       <c r="B282" s="9">
         <v>13.59</v>
@@ -5999,7 +5999,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="8">
-        <v>23.477</v>
+        <v>9.3580000000000005</v>
       </c>
       <c r="B283" s="9">
         <v>13.64</v>
@@ -6018,7 +6018,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="8">
-        <v>23.51</v>
+        <v>9.3910000000000018</v>
       </c>
       <c r="B284" s="9">
         <v>13.13</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="8">
-        <v>23.542999999999999</v>
+        <v>9.4239999999999995</v>
       </c>
       <c r="B285" s="9">
         <v>12.26</v>
@@ -6056,7 +6056,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="8">
-        <v>23.576000000000001</v>
+        <v>9.4570000000000007</v>
       </c>
       <c r="B286" s="9">
         <v>10.9</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="8">
-        <v>23.61</v>
+        <v>9.4909999999999997</v>
       </c>
       <c r="B287" s="9">
         <v>9.0660000000000007</v>
@@ -6094,7 +6094,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="8">
-        <v>23.643000000000001</v>
+        <v>9.5240000000000009</v>
       </c>
       <c r="B288" s="9">
         <v>6.8890000000000002</v>
@@ -6113,7 +6113,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="8">
-        <v>23.675999999999998</v>
+        <v>9.5569999999999986</v>
       </c>
       <c r="B289" s="9">
         <v>4.3339999999999996</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="8">
-        <v>23.71</v>
+        <v>9.5910000000000011</v>
       </c>
       <c r="B290" s="9">
         <v>1.732</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="8">
-        <v>23.742999999999999</v>
+        <v>9.6239999999999988</v>
       </c>
       <c r="B291" s="9">
         <v>-0.74099999999999999</v>
@@ -6170,7 +6170,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="8">
-        <v>23.776</v>
+        <v>9.657</v>
       </c>
       <c r="B292" s="9">
         <v>-5.1929999999999996</v>
@@ -6189,7 +6189,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293" s="8">
-        <v>23.81</v>
+        <v>9.6909999999999989</v>
       </c>
       <c r="B293" s="9">
         <v>-11.42</v>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="8">
-        <v>23.843</v>
+        <v>9.7240000000000002</v>
       </c>
       <c r="B294" s="9">
         <v>-8.8320000000000007</v>
@@ -6227,7 +6227,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="8">
-        <v>23.876000000000001</v>
+        <v>9.7570000000000014</v>
       </c>
       <c r="B295" s="9">
         <v>-11.03</v>
@@ -6246,7 +6246,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="8">
-        <v>23.908999999999999</v>
+        <v>9.7899999999999991</v>
       </c>
       <c r="B296" s="9">
         <v>-12.65</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="8">
-        <v>23.943000000000001</v>
+        <v>9.8240000000000016</v>
       </c>
       <c r="B297" s="9">
         <v>-13.5</v>
@@ -6284,7 +6284,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="8">
-        <v>23.975999999999999</v>
+        <v>9.8569999999999993</v>
       </c>
       <c r="B298" s="9">
         <v>-17.920000000000002</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A299" s="8">
-        <v>24.009</v>
+        <v>9.89</v>
       </c>
       <c r="B299" s="9">
         <v>-10.65</v>
@@ -6322,7 +6322,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="8">
-        <v>24.042999999999999</v>
+        <v>9.9239999999999995</v>
       </c>
       <c r="B300" s="9">
         <v>-10.65</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="8">
-        <v>24.076000000000001</v>
+        <v>9.9570000000000007</v>
       </c>
       <c r="B301" s="9">
         <v>-7.0110000000000001</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="8">
-        <v>24.109000000000002</v>
+        <v>9.990000000000002</v>
       </c>
       <c r="B302" s="9">
         <v>-5.1929999999999996</v>
@@ -6379,7 +6379,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="8">
-        <v>24.141999999999999</v>
+        <v>10.023</v>
       </c>
       <c r="B303" s="9">
         <v>-3.6349999999999998</v>
@@ -6398,7 +6398,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A304" s="8">
-        <v>24.175999999999998</v>
+        <v>10.056999999999999</v>
       </c>
       <c r="B304" s="9">
         <v>1.0389999999999999</v>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="8">
-        <v>24.209</v>
+        <v>10.09</v>
       </c>
       <c r="B305" s="9">
         <v>3.6349999999999998</v>
@@ -6436,7 +6436,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="8">
-        <v>24.242000000000001</v>
+        <v>10.123000000000001</v>
       </c>
       <c r="B306" s="9">
         <v>5.9720000000000004</v>
@@ -6455,7 +6455,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="8">
-        <v>24.276</v>
+        <v>10.157</v>
       </c>
       <c r="B307" s="9">
         <v>5.9720000000000004</v>
@@ -6474,7 +6474,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="8">
-        <v>24.309000000000001</v>
+        <v>10.190000000000001</v>
       </c>
       <c r="B308" s="9">
         <v>8.5690000000000008</v>
@@ -6493,7 +6493,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="8">
-        <v>24.341999999999999</v>
+        <v>10.222999999999999</v>
       </c>
       <c r="B309" s="9">
         <v>11.68</v>
@@ -6512,7 +6512,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="8">
-        <v>24.376000000000001</v>
+        <v>10.257000000000001</v>
       </c>
       <c r="B310" s="9">
         <v>13.76</v>
@@ -6531,7 +6531,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="8">
-        <v>24.408999999999999</v>
+        <v>10.29</v>
       </c>
       <c r="B311" s="9">
         <v>17.920000000000002</v>
@@ -6550,7 +6550,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="8">
-        <v>24.442</v>
+        <v>10.323</v>
       </c>
       <c r="B312" s="9">
         <v>16.62</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="8">
-        <v>24.475999999999999</v>
+        <v>10.356999999999999</v>
       </c>
       <c r="B313" s="9">
         <v>19.21</v>
@@ -6588,7 +6588,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="8">
-        <v>24.509</v>
+        <v>10.39</v>
       </c>
       <c r="B314" s="9">
         <v>19.73</v>
@@ -6607,7 +6607,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="8">
-        <v>24.542000000000002</v>
+        <v>10.423000000000002</v>
       </c>
       <c r="B315" s="9">
         <v>14.8</v>
@@ -6626,7 +6626,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="8">
-        <v>24.574999999999999</v>
+        <v>10.456</v>
       </c>
       <c r="B316" s="9">
         <v>10.130000000000001</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="8">
-        <v>24.609000000000002</v>
+        <v>10.490000000000002</v>
       </c>
       <c r="B317" s="9">
         <v>8.3089999999999993</v>
@@ -6664,7 +6664,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="8">
-        <v>24.641999999999999</v>
+        <v>10.523</v>
       </c>
       <c r="B318" s="9">
         <v>5.4530000000000003</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="8">
-        <v>24.675000000000001</v>
+        <v>10.556000000000001</v>
       </c>
       <c r="B319" s="9">
         <v>4.4139999999999997</v>
@@ -6702,7 +6702,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="8">
-        <v>24.709</v>
+        <v>10.59</v>
       </c>
       <c r="B320" s="9">
         <v>3.375</v>
@@ -6721,7 +6721,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="8">
-        <v>24.742000000000001</v>
+        <v>10.623000000000001</v>
       </c>
       <c r="B321" s="9">
         <v>-0.26</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="8">
-        <v>24.774999999999999</v>
+        <v>10.655999999999999</v>
       </c>
       <c r="B322" s="9">
         <v>-2.597</v>
@@ -6759,7 +6759,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A323" s="8">
-        <v>24.808</v>
+        <v>10.689</v>
       </c>
       <c r="B323" s="9">
         <v>-6.4909999999999997</v>
@@ -6778,7 +6778,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="8">
-        <v>24.841999999999999</v>
+        <v>10.722999999999999</v>
       </c>
       <c r="B324" s="9">
         <v>-11.17</v>
@@ -6797,7 +6797,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="8">
-        <v>24.875</v>
+        <v>10.756</v>
       </c>
       <c r="B325" s="9">
         <v>-8.3089999999999993</v>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="8">
-        <v>24.908000000000001</v>
+        <v>10.789000000000001</v>
       </c>
       <c r="B326" s="9">
         <v>-11.17</v>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A327" s="8">
-        <v>24.942</v>
+        <v>10.823</v>
       </c>
       <c r="B327" s="9">
         <v>-11.42</v>
@@ -6854,7 +6854,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="8">
-        <v>24.975000000000001</v>
+        <v>10.856000000000002</v>
       </c>
       <c r="B328" s="9">
         <v>-12.2</v>
@@ -6873,7 +6873,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="8">
-        <v>25.007999999999999</v>
+        <v>10.888999999999999</v>
       </c>
       <c r="B329" s="9">
         <v>-11.68</v>
@@ -6892,7 +6892,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="8">
-        <v>25.042000000000002</v>
+        <v>10.923000000000002</v>
       </c>
       <c r="B330" s="9">
         <v>-13.24</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="8">
-        <v>25.074999999999999</v>
+        <v>10.956</v>
       </c>
       <c r="B331" s="9">
         <v>-16.62</v>
@@ -6930,7 +6930,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="8">
-        <v>25.108000000000001</v>
+        <v>10.989000000000001</v>
       </c>
       <c r="B332" s="9">
         <v>-10.65</v>
@@ -6949,7 +6949,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="8">
-        <v>25.141999999999999</v>
+        <v>11.023</v>
       </c>
       <c r="B333" s="9">
         <v>-9.0879999999999992</v>
@@ -6968,7 +6968,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="8">
-        <v>25.175000000000001</v>
+        <v>11.056000000000001</v>
       </c>
       <c r="B334" s="9">
         <v>-3.6349999999999998</v>
@@ -6987,7 +6987,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="8">
-        <v>25.207999999999998</v>
+        <v>11.088999999999999</v>
       </c>
       <c r="B335" s="9">
         <v>-3.1160000000000001</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="8">
-        <v>25.241</v>
+        <v>11.122</v>
       </c>
       <c r="B336" s="9">
         <v>1.0389999999999999</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="8">
-        <v>25.274999999999999</v>
+        <v>11.155999999999999</v>
       </c>
       <c r="B337" s="9">
         <v>2.077</v>
@@ -7044,7 +7044,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="8">
-        <v>25.308</v>
+        <v>11.189</v>
       </c>
       <c r="B338" s="9">
         <v>4.1539999999999999</v>
@@ -7063,7 +7063,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="8">
-        <v>25.341000000000001</v>
+        <v>11.222000000000001</v>
       </c>
       <c r="B339" s="9">
         <v>5.4530000000000003</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="8">
-        <v>25.375</v>
+        <v>11.256</v>
       </c>
       <c r="B340" s="9">
         <v>2.1819999999999999</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="8">
-        <v>25.408000000000001</v>
+        <v>11.289000000000001</v>
       </c>
       <c r="B341" s="9">
         <v>4.83</v>
@@ -7120,7 +7120,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="8">
-        <v>25.440999999999999</v>
+        <v>11.321999999999999</v>
       </c>
       <c r="B342" s="9">
         <v>7.234</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="8">
-        <v>25.474</v>
+        <v>11.355</v>
       </c>
       <c r="B343" s="9">
         <v>9.1660000000000004</v>
@@ -7158,7 +7158,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="8">
-        <v>25.507999999999999</v>
+        <v>11.388999999999999</v>
       </c>
       <c r="B344" s="9">
         <v>10.87</v>
@@ -7177,7 +7177,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="8">
-        <v>25.541</v>
+        <v>11.422000000000001</v>
       </c>
       <c r="B345" s="9">
         <v>12.05</v>
@@ -7196,7 +7196,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="8">
-        <v>25.574000000000002</v>
+        <v>11.455000000000002</v>
       </c>
       <c r="B346" s="9">
         <v>12.86</v>
@@ -7215,7 +7215,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="8">
-        <v>25.608000000000001</v>
+        <v>11.489000000000001</v>
       </c>
       <c r="B347" s="9">
         <v>13.18</v>
@@ -7234,7 +7234,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="8">
-        <v>25.640999999999998</v>
+        <v>11.521999999999998</v>
       </c>
       <c r="B348" s="9">
         <v>13.09</v>
@@ -7253,7 +7253,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="8">
-        <v>25.673999999999999</v>
+        <v>11.555</v>
       </c>
       <c r="B349" s="9">
         <v>12.5</v>
@@ -7272,7 +7272,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A350" s="8">
-        <v>25.707999999999998</v>
+        <v>11.588999999999999</v>
       </c>
       <c r="B350" s="9">
         <v>11.48</v>
@@ -7291,7 +7291,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A351" s="8">
-        <v>25.741</v>
+        <v>11.622</v>
       </c>
       <c r="B351" s="9">
         <v>10.029999999999999</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A352" s="8">
-        <v>25.774000000000001</v>
+        <v>11.655000000000001</v>
       </c>
       <c r="B352" s="9">
         <v>8.1920000000000002</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="353" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A353" s="12">
-        <v>25.808</v>
+        <v>11.689</v>
       </c>
       <c r="B353" s="13">
         <v>6.08</v>
